--- a/physics_validation/physics_validation_results.xlsx
+++ b/physics_validation/physics_validation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,99 +436,97 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>物理变量</t>
+          <t>Physical_Variable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>变化范围</t>
+          <t>Simulation_Days</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>预期影响</t>
+          <t>Perturbation_Range</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>实际方向</t>
+          <t>Expected_Direction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>相关系数</t>
+          <t>Observed_Direction</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>p值</t>
+          <t>Correlation_Coeff</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>最大面积变化</t>
+          <t>P_Value</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>最小面积变化</t>
+          <t>Max_Area_Change</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>响应幅度</t>
+          <t>Min_Area_Change</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>响应强度</t>
+          <t>Response_Strength</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>物理一致性</t>
+          <t>Physics_Consistent</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>物理原理</t>
+          <t>Physical_Principle</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Max_Temp_K</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-30.0% 到 +50.0%</t>
-        </is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>-40.0% to +60.0%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-0.6124</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.1438</t>
+          <t>0.0000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+163600.0%</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -538,61 +536,59 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>163600.0%</t>
+          <t>+0.0%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>温度升高降低燃料点燃阈值，加速热解过程</t>
+          <t>Higher biomass provides more fuel</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slope</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-40.0% 到 +80.0%</t>
-        </is>
+          <t>EVI2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>-40.0% to +60.0%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>1.0000</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>+0.0%</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>+0.0%</t>
@@ -600,61 +596,59 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>+0.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>弱</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>上坡地形使火焰更接近燃料，增强预热效应</t>
+          <t>Vegetation vigor proxy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NDVI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-40.0% 到 +60.0%</t>
-        </is>
+          <t>VIIRS_M11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-30.0% to +70.0%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>1.0000</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+0.0%</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>+0.0%</t>
@@ -662,61 +656,59 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>+0.0%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>弱</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>NDVI高表示植被密度大，提供更多可燃物质</t>
+          <t>TIR relates to surface temperature</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total_Precip</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-80.0% 到 +150.0%</t>
-        </is>
+          <t>VIIRS_I2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>-30.0% to +70.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>1.0000</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>+0.0%</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>+0.0%</t>
@@ -724,61 +716,59 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>+0.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>弱</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>降水增加燃料湿度，抑制燃烧和火势蔓延</t>
+          <t>NIR sensitive to dry vegetation</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVI2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-40.0% 到 +60.0%</t>
-        </is>
+          <t>VIIRS_I1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>-30.0% to +70.0%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>1.0000</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+0.0%</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>+0.0%</t>
@@ -786,61 +776,59 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>+0.0%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>弱</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>EVI2反映植被活力，与可燃生物量正相关</t>
+          <t>Red band reflects vegetation stress</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VIIRS_M11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-30.0% 到 +70.0%</t>
-        </is>
+          <t>Slope</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>-40.0% to +80.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>1.0000</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>+0.0%</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>+0.0%</t>
@@ -848,22 +836,382 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>+0.0%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>弱</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>热红外辐射强度与地表温度和火活动正相关</t>
+          <t>Upslope preheats fuel ahead</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-30.0% to +30.0%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>South-facing slopes receive more radiation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Elevation</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-20.0% to +40.0%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Higher elevation tends to be cooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Landcover</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-30.0% to +50.0%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Different vegetation has different flammability</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total_Precip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-80.0% to +150.0%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Rain increases fuel moisture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Min_Temp_K</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-30.0% to +50.0%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.7698</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+30783900.0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Higher min temp implies drier conditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Max_Temp_K</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-30.0% to +50.0%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-0.6124</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+6155600.0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+0.0%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Higher temp lowers ignition threshold</t>
         </is>
       </c>
     </row>
